--- a/biology/Médecine/Surdité_d'origine_génétique/Surdité_d'origine_génétique.xlsx
+++ b/biology/Médecine/Surdité_d'origine_génétique/Surdité_d'origine_génétique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Surdit%C3%A9_d%27origine_g%C3%A9n%C3%A9tique</t>
+          <t>Surdité_d'origine_génétique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs centaines de gènes sont responsables de surdité et de perte d'audition.
 La perte d'audition peut être :
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Surdit%C3%A9_d%27origine_g%C3%A9n%C3%A9tique</t>
+          <t>Surdité_d'origine_génétique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Incidence et prévalence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Environ 1 enfant sur 2 000 naissances à 1 enfant sur 1 000 naissances est porteur d'une surdité profonde.
 Près de la moitié des surdités pré linguales sont d'origine génétique et presque toujours de transmission autosomique récessive et non syndromique. Plus de 40 gènes impliqués dans ce type de surdité sont actuellement identifiés. Le gène GJB2 est responsable dans certaines ethnies de la moitié des surdités non syndromiques.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Surdit%C3%A9_d%27origine_g%C3%A9n%C3%A9tique</t>
+          <t>Surdité_d'origine_génétique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,26 +562,103 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les surdités d'origine génétique représentent la moitié des surdités pré linguales. L'autre moitié se divise en part égale en surdité d'origine inconnue et surdité de causes connues mais non génétiques.
 30 % des surdités d'origine génétique sont syndromiques
 70 % des surdités d'origine génétique sont non syndromiques
 1 à 2 pour cent de ces surdités sont liées à l'X
 18 pour cent de ces surdités sont à transmission autosomique dominante
-Environ 80 pour cent de ces surdités sont à transmission autosomique récessive (La moitié par mutation des gènes GJB2 et GJB6)
-Surdité syndromique
-Transmission autosomique dominante
-Syndrome de Waardenburg
+Environ 80 pour cent de ces surdités sont à transmission autosomique récessive (La moitié par mutation des gènes GJB2 et GJB6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Surdité_d'origine_génétique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Surdit%C3%A9_d%27origine_g%C3%A9n%C3%A9tique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Étiologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Surdité syndromique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Transmission autosomique dominante</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Syndrome de Waardenburg
 Le syndrome de Waardenburg est la cause la plus fréquente de surdité syndromique à transmission dominante.
 Syndrome branchio-oto-rénal
 Le syndrome Branchio-Oto-Rénal est la deuxième cause de surdité syndromique à transmission dominante.
 Syndrome de Stickler
 Le syndrome de Stickler est une ostéochondrodysplasie.
 Neurofibromatose
-La Neurofibromatose de type II s'accompagne d'une surdité répondant bien à une prise en charge.
-Transmission autosomique récessive
-Syndrome d'Usher
+La Neurofibromatose de type II s'accompagne d'une surdité répondant bien à une prise en charge.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Surdité_d'origine_génétique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Surdit%C3%A9_d%27origine_g%C3%A9n%C3%A9tique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Étiologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Surdité syndromique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Transmission autosomique récessive</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Syndrome d'Usher
 Le syndrome d'Usher est la cause la plus fréquente de surdité syndromique à transmission récessive.
 Syndrome de Pendred
 Le syndrome de Pendred est la deuxième cause de surdité syndromique à transmission récessive.
@@ -576,55 +667,204 @@
 Déficit en biotinidase
 Le déficit en biotinidase est une cause de surdité syndromique à transmission récessive.
 Maladie de Refsum
-La maladie de Refsum est une cause de surdité syndromique à transmission récessive.
-Transmission liée à l'X
-Syndrome d'Alport
+La maladie de Refsum est une cause de surdité syndromique à transmission récessive.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Surdité_d'origine_génétique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Surdit%C3%A9_d%27origine_g%C3%A9n%C3%A9tique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Étiologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Surdité syndromique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Transmission liée à l'X</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Syndrome d'Alport
 Le Syndrome d'Alport est le plus souvent à transmission dominante.
-Syndrome de Mohr-Tranebjaerg
-Transmission mitochondriale
-Syndrome MELAS
+Syndrome de Mohr-Tranebjaerg</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Surdité_d'origine_génétique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Surdit%C3%A9_d%27origine_g%C3%A9n%C3%A9tique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Étiologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Surdité syndromique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Transmission mitochondriale</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Syndrome MELAS
 Syndrome MERRF
-Syndrome NARP
-Surdité non syndromique
-Représente la grande majorité des surdités d'origine génétique. Les locus impliqués dans ce type de surdité sont nommés par le sigle DFN (DeaFNess, surdité en anglais).
+Syndrome NARP</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Surdité_d'origine_génétique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Surdit%C3%A9_d%27origine_g%C3%A9n%C3%A9tique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Étiologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Surdité non syndromique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Représente la grande majorité des surdités d'origine génétique. Les locus impliqués dans ce type de surdité sont nommés par le sigle DFN (DeaFNess, surdité en anglais).
 Les locus dominants sont nommés DFNA, Les locus récessifs sont nommés DFNB et les gènes liés à l'X nommés DFNN. Le nombre suivant le nom du locus les différencie en fonction de leur date de découverte.
 Certains locus sont aussi impliqués dans certaines surdités syndromiques.
 La plupart des surdités récessives non syndromiques sont des surdités sévères pré linguales sauf pour le gène DFNB8
 La plupart des surdités dominantes non syndromiques sont des surdités sévères post linguales sauf pour les gènes DFNA3, DFNA8, DFNA12, et DFNA19.
-Les surdités liées à l'X non syndromiques sont soit pré linguales ou post linguales
-Transmission dominante
-Transmission mitochondriale
-Syndrome de Ballinger-Wallace</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Surdit%C3%A9_d%27origine_g%C3%A9n%C3%A9tique</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Surdit%C3%A9_d%27origine_g%C3%A9n%C3%A9tique</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Les surdités liées à l'X non syndromiques sont soit pré linguales ou post linguales</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Surdité_d'origine_génétique</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Surdit%C3%A9_d%27origine_g%C3%A9n%C3%A9tique</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Étiologie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Surdité non syndromique</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Transmission mitochondriale</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Syndrome de Ballinger-Wallace</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Surdité_d'origine_génétique</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Surdit%C3%A9_d%27origine_g%C3%A9n%C3%A9tique</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(en) GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 [1]
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 
 (en) Hereditary Hearing loss Homepage
  Portail de la médecine   Portail du handicap                    </t>
         </is>
